--- a/修論/本文0105/その他/ぺガードの法則.xlsx
+++ b/修論/本文0105/その他/ぺガードの法則.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/本文/その他/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C718568-2290-4048-80A5-D95DA467D691}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20452EE6-1E30-41D7-919F-75E347F9E080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="15000" activeTab="4" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="1140" yWindow="540" windowWidth="23805" windowHeight="15000" activeTab="2" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -383,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,12 +426,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -657,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,10 +778,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -784,10 +799,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4546,18 +4561,18 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="5"/>
-    <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5"/>
-    <col min="6" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="10.7109375" style="5"/>
-    <col min="17" max="17" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="5"/>
+    <col min="1" max="3" width="10.6640625" style="5"/>
+    <col min="4" max="4" width="22.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="5"/>
+    <col min="6" max="7" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="10.6640625" style="5"/>
+    <col min="17" max="17" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C1" s="7"/>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -4582,8 +4597,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="3:20">
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5">
@@ -4633,8 +4648,8 @@
         <v>5.6546999999999992</v>
       </c>
     </row>
-    <row r="3" spans="3:20">
-      <c r="C3" s="38"/>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C3" s="39"/>
       <c r="D3" s="5">
         <v>0.41760000000000003</v>
       </c>
@@ -4668,12 +4683,12 @@
       <c r="P3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="36">
         <v>5.6604999999999999</v>
       </c>
     </row>
-    <row r="4" spans="3:20">
-      <c r="C4" s="38"/>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C4" s="39"/>
       <c r="D4" s="5">
         <v>0.18959999999999999</v>
       </c>
@@ -4707,8 +4722,8 @@
         <v>5.6536359999999997</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="21" thickBot="1">
-      <c r="C5" s="39"/>
+    <row r="5" spans="3:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="40"/>
       <c r="D5" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -4741,7 +4756,7 @@
         <v>5.6590500000000006</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="21" thickBot="1">
+    <row r="6" spans="3:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4783,7 @@
         <v>1.0367402533078557E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4795,7 +4810,7 @@
         <v>5.4511700000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4803,7 +4818,7 @@
         <v>6.0583</v>
       </c>
     </row>
-    <row r="12" spans="3:20">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>5.8687500000000004</v>
       </c>
     </row>
-    <row r="13" spans="3:20">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4843,7 @@
         <v>5.5946467999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
       <c r="E18" s="5" t="s">
         <v>70</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>0.68167940281610195</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
       <c r="D20" s="5" t="s">
         <v>69</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>142.29341749999998</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
       <c r="E22" s="5">
         <v>10</v>
       </c>
@@ -4892,7 +4907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
       <c r="E24" s="11"/>
     </row>
   </sheetData>
@@ -4912,19 +4927,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="5"/>
+    <col min="1" max="3" width="10.6640625" style="5"/>
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5"/>
+    <col min="6" max="6" width="10.6640625" style="5"/>
     <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.7109375" style="5"/>
+    <col min="8" max="10" width="10.6640625" style="5"/>
     <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="5"/>
+    <col min="12" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="21" thickBot="1">
+    <row r="1" spans="3:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
@@ -4941,8 +4956,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="3:15">
-      <c r="C2" s="40" t="s">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4971,8 +4986,8 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="3" spans="3:15">
-      <c r="C3" s="38"/>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C3" s="39"/>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
@@ -5006,8 +5021,8 @@
         <v>1.7723016</v>
       </c>
     </row>
-    <row r="4" spans="3:15">
-      <c r="C4" s="38"/>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C4" s="39"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -5036,8 +5051,8 @@
         <v>699.65518284246878</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="21" thickBot="1">
-      <c r="C5" s="39"/>
+    <row r="5" spans="3:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="40"/>
       <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
@@ -5047,15 +5062,15 @@
       <c r="H5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.4">
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K7" s="11">
         <v>2.1503450000000002</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K8" s="11"/>
     </row>
   </sheetData>
@@ -5072,24 +5087,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
   <dimension ref="B1:T61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="14"/>
+    <col min="1" max="1" width="10.6640625" style="14"/>
     <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="14"/>
-    <col min="8" max="8" width="17.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="14"/>
-    <col min="13" max="13" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="14"/>
+    <col min="3" max="3" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" style="14"/>
+    <col min="8" max="8" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.6640625" style="14"/>
+    <col min="13" max="13" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27" t="s">
@@ -5102,7 +5117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
@@ -5119,7 +5134,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
         <v>33</v>
@@ -5133,14 +5148,14 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
@@ -5157,7 +5172,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
         <v>33</v>
@@ -5170,7 +5185,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="27" t="s">
         <v>62</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
         <v>33</v>
@@ -5200,8 +5215,8 @@
       </c>
       <c r="F8" s="27"/>
     </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1"/>
-    <row r="11" spans="2:20" ht="17" thickBot="1">
+    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
@@ -5225,7 +5240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
@@ -5263,7 +5278,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>4.1116198749999997</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>38</v>
       </c>
@@ -5343,7 +5358,7 @@
         <v>34.527299999999997</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
@@ -5380,7 +5395,7 @@
         <v>1.06751</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
@@ -5421,7 +5436,7 @@
         <v>4.9491030807251223E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1">
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="24" t="s">
         <v>41</v>
       </c>
@@ -5453,19 +5468,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I18" s="34"/>
       <c r="J18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="43">
         <f>SQRT(K17+1)</f>
         <v>3.495808130728832</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="43">
         <f>SQRT(N17+1)</f>
         <v>3.1750686968238018</v>
       </c>
@@ -5475,8 +5490,11 @@
       <c r="S18" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="20">
+      <c r="T18" s="14">
+        <v>3.168117583238458</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -5499,7 +5517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="20">
+    <row r="21" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H21">
         <v>800</v>
       </c>
@@ -5531,7 +5549,7 @@
         <f>Q$14/Q$13+Q$14/Q$13^3*$I21^2+Q$16/PI()*$I21^4*LN((2*Q$13^2-Q$15^2-$I21^2)/(Q$15^2-$I21^2))</f>
         <v>10.462624805344729</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="44">
         <f>SQRT(P21+1)</f>
         <v>3.3856498350161273</v>
       </c>
@@ -5544,7 +5562,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="20">
+    <row r="22" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H22">
         <v>810</v>
       </c>
@@ -5589,7 +5607,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="20">
+    <row r="23" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H23">
         <v>820</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="20">
+    <row r="24" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H24">
         <v>830</v>
       </c>
@@ -5679,7 +5697,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="20">
+    <row r="25" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H25">
         <v>840</v>
       </c>
@@ -5724,7 +5742,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="20">
+    <row r="26" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H26">
         <v>850</v>
       </c>
@@ -5769,7 +5787,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="20">
+    <row r="27" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H27">
         <v>860</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="20">
+    <row r="28" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H28">
         <v>870</v>
       </c>
@@ -5859,7 +5877,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="20">
+    <row r="29" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H29">
         <v>880</v>
       </c>
@@ -5904,7 +5922,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="20">
+    <row r="30" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H30">
         <v>890</v>
       </c>
@@ -5949,7 +5967,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="20">
+    <row r="31" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H31">
         <v>900</v>
       </c>
@@ -5994,7 +6012,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="20">
+    <row r="32" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H32">
         <v>910</v>
       </c>
@@ -6039,7 +6057,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="8:20" ht="20">
+    <row r="33" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H33">
         <v>920</v>
       </c>
@@ -6084,7 +6102,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="8:20" ht="20">
+    <row r="34" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H34">
         <v>930</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="8:20" ht="20">
+    <row r="35" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H35">
         <v>940</v>
       </c>
@@ -6174,7 +6192,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="8:20" ht="20">
+    <row r="36" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H36">
         <v>950</v>
       </c>
@@ -6219,7 +6237,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="8:20" ht="20">
+    <row r="37" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H37">
         <v>960</v>
       </c>
@@ -6264,7 +6282,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="8:20" ht="20">
+    <row r="38" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H38">
         <v>970</v>
       </c>
@@ -6309,7 +6327,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="8:20" ht="20">
+    <row r="39" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H39">
         <v>980</v>
       </c>
@@ -6354,7 +6372,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="8:20" ht="20">
+    <row r="40" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H40">
         <v>990</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="8:20" ht="20">
+    <row r="41" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H41">
         <v>1000</v>
       </c>
@@ -6444,7 +6462,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="8:20" ht="20">
+    <row r="42" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H42">
         <v>1010</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="8:20" ht="20">
+    <row r="43" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H43">
         <v>1020</v>
       </c>
@@ -6534,7 +6552,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="8:20" ht="20">
+    <row r="44" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H44">
         <v>1030</v>
       </c>
@@ -6579,7 +6597,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="8:20" ht="20">
+    <row r="45" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H45">
         <v>1040</v>
       </c>
@@ -6624,7 +6642,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="8:20" ht="20">
+    <row r="46" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H46">
         <v>1050</v>
       </c>
@@ -6669,7 +6687,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="8:20" ht="20">
+    <row r="47" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H47">
         <v>1060</v>
       </c>
@@ -6714,7 +6732,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="8:20" ht="20">
+    <row r="48" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H48">
         <v>1070</v>
       </c>
@@ -6759,7 +6777,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="49" spans="8:20" ht="20">
+    <row r="49" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H49">
         <v>1080</v>
       </c>
@@ -6804,7 +6822,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="50" spans="8:20" ht="20">
+    <row r="50" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H50">
         <v>1090</v>
       </c>
@@ -6849,7 +6867,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="51" spans="8:20" ht="20">
+    <row r="51" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H51">
         <v>1100</v>
       </c>
@@ -6894,7 +6912,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="52" spans="8:20" ht="20">
+    <row r="52" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H52">
         <v>1110</v>
       </c>
@@ -6939,7 +6957,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="53" spans="8:20" ht="20">
+    <row r="53" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H53">
         <v>1120</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="54" spans="8:20" ht="20">
+    <row r="54" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H54">
         <v>1130</v>
       </c>
@@ -7029,7 +7047,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="55" spans="8:20" ht="20">
+    <row r="55" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H55">
         <v>1140</v>
       </c>
@@ -7074,7 +7092,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="8:20" ht="20">
+    <row r="56" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H56">
         <v>1150</v>
       </c>
@@ -7119,7 +7137,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="57" spans="8:20" ht="20">
+    <row r="57" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H57">
         <v>1160</v>
       </c>
@@ -7164,7 +7182,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="58" spans="8:20" ht="20">
+    <row r="58" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H58">
         <v>1170</v>
       </c>
@@ -7209,7 +7227,7 @@
         <v>3.1788758138534874</v>
       </c>
     </row>
-    <row r="59" spans="8:20" ht="20">
+    <row r="59" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H59">
         <v>1180</v>
       </c>
@@ -7254,7 +7272,7 @@
         <v>3.174306656885316</v>
       </c>
     </row>
-    <row r="60" spans="8:20" ht="20">
+    <row r="60" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H60">
         <v>1190</v>
       </c>
@@ -7299,7 +7317,7 @@
         <v>3.170956514764923</v>
       </c>
     </row>
-    <row r="61" spans="8:20" ht="20">
+    <row r="61" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H61">
         <v>1200</v>
       </c>
@@ -7360,9 +7378,9 @@
       <selection activeCell="K3" sqref="K3:K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -7386,7 +7404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>57</v>
       </c>
@@ -7414,8 +7432,8 @@
         <v>3.2845990658157938</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -7448,8 +7466,8 @@
         <v>3.2785608421044015</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>3.2727778413821778</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -7511,7 +7529,7 @@
         <v>3.2672354174575302</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E7">
         <v>840</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v>3.2619199892730428</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -7564,7 +7582,7 @@
         <v>3.2568189470681403</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -7592,7 +7610,7 @@
         <v>3.2519205682405112</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7623,7 +7641,7 @@
         <v>3.2472139417581154</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -7654,7 +7672,7 @@
         <v>3.2426889001264074</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -7685,7 +7703,7 @@
         <v>3.2383359580457145</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7716,7 +7734,7 @@
         <v>3.2341462570051029</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -7747,7 +7765,7 @@
         <v>3.2301115151545416</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -7775,7 +7793,7 @@
         <v>3.2262239818792824</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>3.2224763965710843</v>
       </c>
     </row>
-    <row r="17" spans="5:11">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>940</v>
       </c>
@@ -7828,7 +7846,7 @@
         <v>3.2188619511520398</v>
       </c>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E18">
         <v>950</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>3.2153742559596474</v>
       </c>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E19">
         <v>960</v>
       </c>
@@ -7878,7 +7896,7 @@
         <v>3.2120073086477205</v>
       </c>
     </row>
-    <row r="20" spans="5:11">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E20">
         <v>970</v>
       </c>
@@ -7903,7 +7921,7 @@
         <v>3.2087554657976485</v>
       </c>
     </row>
-    <row r="21" spans="5:11">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E21">
         <v>980</v>
       </c>
@@ -7928,7 +7946,7 @@
         <v>3.2056134169693657</v>
       </c>
     </row>
-    <row r="22" spans="5:11">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E22">
         <v>990</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>3.2025761609517844</v>
       </c>
     </row>
-    <row r="23" spans="5:11">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E23">
         <v>1000</v>
       </c>
@@ -7978,7 +7996,7 @@
         <v>3.1996389839990873</v>
       </c>
     </row>
-    <row r="24" spans="5:11">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>1010</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>3.196797439862614</v>
       </c>
     </row>
-    <row r="25" spans="5:11">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E25">
         <v>1020</v>
       </c>
@@ -8028,7 +8046,7 @@
         <v>3.1940473314486049</v>
       </c>
     </row>
-    <row r="26" spans="5:11">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E26">
         <v>1030</v>
       </c>
@@ -8053,7 +8071,7 @@
         <v>3.1913846939501189</v>
       </c>
     </row>
-    <row r="27" spans="5:11">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E27">
         <v>1040</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>3.1888057793173785</v>
       </c>
     </row>
-    <row r="28" spans="5:11">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E28">
         <v>1050</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>3.1863070419448563</v>
       </c>
     </row>
-    <row r="29" spans="5:11">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E29">
         <v>1060</v>
       </c>
@@ -8128,7 +8146,7 @@
         <v>3.1838851254658924</v>
       </c>
     </row>
-    <row r="30" spans="5:11">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E30">
         <v>1070</v>
       </c>
@@ -8153,7 +8171,7 @@
         <v>3.1815368505566433</v>
       </c>
     </row>
-    <row r="31" spans="5:11">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E31">
         <v>1080</v>
       </c>
@@ -8178,7 +8196,7 @@
         <v>3.179259203660981</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E32">
         <v>1090</v>
       </c>
@@ -8203,7 +8221,7 @@
         <v>3.1770493265566717</v>
       </c>
     </row>
-    <row r="33" spans="5:11">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E33">
         <v>1100</v>
       </c>
@@ -8228,7 +8246,7 @@
         <v>3.1749045066909192</v>
       </c>
     </row>
-    <row r="34" spans="5:11">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E34">
         <v>1110</v>
       </c>
@@ -8253,7 +8271,7 @@
         <v>3.1728221682202813</v>
       </c>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E35">
         <v>1120</v>
       </c>
@@ -8278,7 +8296,7 @@
         <v>3.1707998636961525</v>
       </c>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E36">
         <v>1130</v>
       </c>
@@ -8303,7 +8321,7 @@
         <v>3.1688352663425263</v>
       </c>
     </row>
-    <row r="37" spans="5:11">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E37">
         <v>1140</v>
       </c>
@@ -8328,7 +8346,7 @@
         <v>3.1669261628777114</v>
       </c>
     </row>
-    <row r="38" spans="5:11">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E38">
         <v>1150</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>3.1650704468361108</v>
       </c>
     </row>
-    <row r="39" spans="5:11">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E39">
         <v>1160</v>
       </c>
@@ -8378,7 +8396,7 @@
         <v>3.1632661123501586</v>
       </c>
     </row>
-    <row r="40" spans="5:11">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E40">
         <v>1170</v>
       </c>
@@ -8403,7 +8421,7 @@
         <v>3.1615112483561014</v>
       </c>
     </row>
-    <row r="41" spans="5:11">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E41">
         <v>1180</v>
       </c>
@@ -8428,7 +8446,7 @@
         <v>3.1598040331905293</v>
       </c>
     </row>
-    <row r="42" spans="5:11">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E42">
         <v>1190</v>
       </c>
@@ -8453,7 +8471,7 @@
         <v>3.1581427295474818</v>
       </c>
     </row>
-    <row r="43" spans="5:11">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E43">
         <v>1200</v>
       </c>
@@ -8492,16 +8510,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C205BD1-56DB-C741-BF6B-D300D080FC5E}">
   <dimension ref="D2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
         <v>77</v>
       </c>
@@ -8509,187 +8527,187 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="4:8">
-      <c r="D3" s="42" t="s">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="37">
         <v>3.5</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37">
         <v>3.5</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="4:8">
-      <c r="D4" s="42" t="s">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="37">
         <v>299792458</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="37">
         <v>299792458</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="4:8">
-      <c r="D5" s="42" t="s">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D5" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="37">
         <v>0.3</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37">
         <v>0.3</v>
       </c>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="4:8">
-      <c r="D6" s="42" t="s">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D6" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="37">
         <v>11.8</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="37">
         <v>18</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="4:8">
-      <c r="D7" s="42" t="s">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="37">
         <f>E6*100</f>
         <v>1180</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="37">
         <f>G6*100</f>
         <v>1800</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
-      <c r="D8" s="42" t="s">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>300</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <v>300</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
-      <c r="D9" s="42" t="s">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="38">
         <f>E8*0.000001</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="38">
         <f>G8*0.000001</f>
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
-      <c r="D10" s="42" t="s">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D10" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="38">
         <f>E7+1/E9*LN(1/E5)</f>
         <v>5193.2426810864545</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <f>G7+1/G9*LN(1/G5)</f>
         <v>5813.2426810864545</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
-      <c r="D11" s="42" t="s">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="38">
         <f>E3/E4/E10</f>
         <v>2.2480642729164553E-12</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="38">
         <f>G3/G4/G10</f>
         <v>2.0083013857170322E-12</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="D12" s="42"/>
-      <c r="E12" s="43">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D12" s="37"/>
+      <c r="E12" s="38">
         <f>E11*1000000000000</f>
         <v>2.2480642729164555</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="38">
         <f>G11*1000000000000</f>
         <v>2.0083013857170324</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
       <c r="E14" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D15">
         <f>558/151</f>
         <v>3.6953642384105962</v>
